--- a/卒業論文/卒論(管理用)/スカイリム .xlsx
+++ b/卒業論文/卒論(管理用)/スカイリム .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\卒論\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\main\卒業論文\卒論(管理用)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -710,11 +710,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="435692640"/>
-        <c:axId val="435693816"/>
+        <c:axId val="417072392"/>
+        <c:axId val="363114672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="435692640"/>
+        <c:axId val="417072392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435693816"/>
+        <c:crossAx val="363114672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,8 +751,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435693816"/>
+        <c:axId val="363114672"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -780,7 +781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435692640"/>
+        <c:crossAx val="417072392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -943,11 +944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="435706752"/>
-        <c:axId val="430551456"/>
+        <c:axId val="119315280"/>
+        <c:axId val="364555352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="435706752"/>
+        <c:axId val="119315280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +977,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430551456"/>
+        <c:crossAx val="364555352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -984,8 +985,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430551456"/>
+        <c:axId val="364555352"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1013,7 +1015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435706752"/>
+        <c:crossAx val="119315280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1360,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>

--- a/卒業論文/卒論(管理用)/スカイリム .xlsx
+++ b/卒業論文/卒論(管理用)/スカイリム .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\main\卒業論文\卒論(管理用)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\卒論\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -710,11 +710,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="417072392"/>
-        <c:axId val="363114672"/>
+        <c:axId val="435692640"/>
+        <c:axId val="435693816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417072392"/>
+        <c:axId val="435692640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363114672"/>
+        <c:crossAx val="435693816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,9 +751,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363114672"/>
+        <c:axId val="435693816"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -781,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417072392"/>
+        <c:crossAx val="435692640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,11 +943,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="119315280"/>
-        <c:axId val="364555352"/>
+        <c:axId val="435706752"/>
+        <c:axId val="430551456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119315280"/>
+        <c:axId val="435706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364555352"/>
+        <c:crossAx val="430551456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,9 +984,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364555352"/>
+        <c:axId val="430551456"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1015,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119315280"/>
+        <c:crossAx val="435706752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>

--- a/卒業論文/卒論(管理用)/スカイリム .xlsx
+++ b/卒業論文/卒論(管理用)/スカイリム .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\main\卒業論文\卒論(管理用)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\soturon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$X$1:$X$178</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="125">
   <si>
     <t>日</t>
   </si>
@@ -199,13 +202,6 @@
     <t>最小</t>
     <rPh sb="0" eb="2">
       <t>サイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10倍</t>
-    <rPh sb="2" eb="3">
-      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -427,6 +423,10 @@
   </si>
   <si>
     <t>n7JyJeKR</t>
+  </si>
+  <si>
+    <t>X1MvY3Np1-O</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$3:$R$13</c:f>
+              <c:f>Sheet1!$Q$3:$Q$13</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -660,7 +660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$13</c:f>
+              <c:f>Sheet1!$R$3:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -710,11 +710,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="417072392"/>
-        <c:axId val="363114672"/>
+        <c:axId val="360495112"/>
+        <c:axId val="360497856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417072392"/>
+        <c:axId val="360495112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363114672"/>
+        <c:crossAx val="360497856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,9 +751,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363114672"/>
+        <c:axId val="360497856"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -781,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417072392"/>
+        <c:crossAx val="360495112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -847,7 +846,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$19:$R$30</c:f>
+              <c:f>Sheet1!$Q$19:$Q$30</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -891,7 +890,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$19:$S$30</c:f>
+              <c:f>Sheet1!$R$19:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -944,11 +943,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="119315280"/>
-        <c:axId val="364555352"/>
+        <c:axId val="360500208"/>
+        <c:axId val="360495504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119315280"/>
+        <c:axId val="360500208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364555352"/>
+        <c:crossAx val="360495504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,9 +984,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364555352"/>
+        <c:axId val="360495504"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1015,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119315280"/>
+        <c:crossAx val="360500208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,16 +1034,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1066,13 +1064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -1360,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:Y178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,7 +1372,7 @@
     <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1397,16 +1395,13 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1432,37 +1427,37 @@
         <v>52</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J43" si="0">COUNTIF($E$1:$E$76,I2)</f>
+        <f>COUNTIF($E$1:$E$178,I2)</f>
         <v>2</v>
       </c>
       <c r="K2">
-        <f>J2*10</f>
-        <v>20</v>
-      </c>
-      <c r="L2">
+        <f t="shared" ref="K2:K33" si="0">SUMIF(E$1:E$178,I2,F$1:F$178)</f>
         <v>7</v>
       </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
       <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="R2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="V2">
-        <f>MAX(K2:K43)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="U2" t="e">
+        <f>MAX(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1488,37 +1483,37 @@
         <v>8</v>
       </c>
       <c r="J3" s="4">
+        <f t="shared" ref="J3:J66" si="1">COUNTIF($E$1:$E$178,I3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K43" si="1">J3*10</f>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="6">
         <v>10</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>20</v>
-      </c>
-      <c r="P3">
-        <v>61</v>
-      </c>
-      <c r="R3" s="6">
-        <v>10</v>
-      </c>
-      <c r="S3" s="7">
+      <c r="R3" s="7">
         <v>32</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3" t="s">
         <v>54</v>
       </c>
-      <c r="V3">
-        <f>MIN(K2:K43)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="U3" t="e">
+        <f>MIN(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1544,1152 +1539,1153 @@
         <v>9</v>
       </c>
       <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>20</v>
+      </c>
+      <c r="R4" s="7">
+        <v>5</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41352</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.90708333333333335</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>30</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41244</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.60261574074074076</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>244</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>40</v>
+      </c>
+      <c r="R6" s="7">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6">
+        <f>MAX(L2:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41241</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>305</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>50</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7">
+        <f>MIN(L2:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41169</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.7407407407407406E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>70</v>
+      </c>
+      <c r="O8">
+        <v>366</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>60</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41132</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.51085648148148144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>427</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>70</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41069</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.87040509259259258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>90</v>
+      </c>
+      <c r="O10">
+        <v>488</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>80</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41056</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.63613425925925926</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>549</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>90</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>41056</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.0798611111111114E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>610</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>100</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41055</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41055</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.71166666666666656</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>110</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>41055</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>41050</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.0995370370370371E-3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>41023</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.73329861111111105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40997</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.20841435185185186</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>40996</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.95469907407407406</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>2</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40976</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.48540509259259257</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>388</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>61</v>
+      </c>
+      <c r="R20" s="7">
+        <v>33</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40976</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.4720138888888889</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>385</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>122</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40966</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.90657407407407409</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>183</v>
+      </c>
+      <c r="R22" s="7">
+        <v>2</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>40956</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.47726851851851854</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>244</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>40956</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.33302083333333332</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>178</v>
+      </c>
+      <c r="G24">
+        <v>178</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="Q24" s="6">
+        <v>305</v>
+      </c>
+      <c r="R24" s="7">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40932</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.79628472222222213</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>366</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40926</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.89216435185185183</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>427</v>
+      </c>
+      <c r="R26" s="7">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>40926</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.88377314814814811</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>488</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40926</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.84783564814814805</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>549</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>40926</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.73621527777777773</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>30</v>
-      </c>
-      <c r="P4">
-        <v>122</v>
-      </c>
-      <c r="R4" s="6">
-        <v>20</v>
-      </c>
-      <c r="S4" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>41352</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.90708333333333335</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="K29">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>40</v>
-      </c>
-      <c r="P5">
-        <v>183</v>
-      </c>
-      <c r="R5" s="6">
-        <v>30</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>41244</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.60261574074074076</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>50</v>
-      </c>
-      <c r="P6">
-        <v>244</v>
-      </c>
-      <c r="R6" s="6">
-        <v>40</v>
-      </c>
-      <c r="S6" s="7">
-        <v>2</v>
-      </c>
-      <c r="U6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6">
-        <f>MAX(L2:L43)</f>
-        <v>606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>41241</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.0833333333333331E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>60</v>
-      </c>
-      <c r="P7">
-        <v>305</v>
-      </c>
-      <c r="R7" s="6">
-        <v>50</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7">
-        <f>MIN(L2:L43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>41169</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.7407407407407406E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>13</v>
-      </c>
-      <c r="O8">
-        <v>70</v>
-      </c>
-      <c r="P8">
-        <v>366</v>
-      </c>
-      <c r="R8" s="6">
-        <v>60</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>41132</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.51085648148148144</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>26</v>
-      </c>
-      <c r="O9">
-        <v>80</v>
-      </c>
-      <c r="P9">
-        <v>427</v>
-      </c>
-      <c r="R9" s="6">
-        <v>70</v>
-      </c>
-      <c r="S9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>41069</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.87040509259259258</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>90</v>
-      </c>
-      <c r="P10">
-        <v>488</v>
-      </c>
-      <c r="R10" s="6">
-        <v>80</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>41056</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.63613425925925926</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="P11">
-        <v>549</v>
-      </c>
-      <c r="R11" s="6">
-        <v>90</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>41056</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5.0798611111111114E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>17</v>
-      </c>
-      <c r="P12">
+        <v>262</v>
+      </c>
+      <c r="Q29" s="6">
         <v>610</v>
       </c>
-      <c r="R12" s="6">
-        <v>100</v>
-      </c>
-      <c r="S12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>41055</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>41055</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.71166666666666656</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6">
-        <v>110</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>41055</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.70666666666666667</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>41050</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.0995370370370371E-3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>41023</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.73329861111111105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>40997</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.20841435185185186</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>40996</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.95469907407407406</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>40976</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.48540509259259257</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>388</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6">
-        <v>61</v>
-      </c>
-      <c r="S20" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>40976</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.4720138888888889</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>385</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6">
-        <v>122</v>
-      </c>
-      <c r="S21" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>40966</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.90657407407407409</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L22">
-        <v>178</v>
-      </c>
-      <c r="R22" s="6">
-        <v>183</v>
-      </c>
-      <c r="S22" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>40956</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.47726851851851854</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6">
-        <v>244</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>40956</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.33302083333333332</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24">
-        <v>178</v>
-      </c>
-      <c r="G24">
-        <v>178</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="R29" s="7">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="L24" s="5">
-        <v>10</v>
-      </c>
-      <c r="R24" s="6">
-        <v>305</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>40932</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.79628472222222213</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>156</v>
-      </c>
-      <c r="R25" s="6">
-        <v>366</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>40926</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.89216435185185183</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6">
-        <v>427</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>40926</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.88377314814814811</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="R27" s="6">
-        <v>488</v>
-      </c>
-      <c r="S27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>40926</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.84783564814814805</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="R28" s="6">
-        <v>549</v>
-      </c>
-      <c r="S28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>40926</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.73621527777777773</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>262</v>
-      </c>
-      <c r="R29" s="6">
-        <v>610</v>
-      </c>
-      <c r="S29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2715,24 +2711,24 @@
         <v>34</v>
       </c>
       <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L30">
         <v>3</v>
       </c>
-      <c r="R30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="8">
+      <c r="Q30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="X30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2758,22 +2754,22 @@
         <v>35</v>
       </c>
       <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L31">
         <v>0</v>
       </c>
-      <c r="N31">
+      <c r="M31">
         <f>SUM(F57:F60)</f>
         <v>402</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="X31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2799,18 +2795,18 @@
         <v>36</v>
       </c>
       <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2836,18 +2832,18 @@
         <v>37</v>
       </c>
       <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2873,18 +2869,18 @@
         <v>38</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($E$1:$E$178,I34)</f>
         <v>1</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L34">
+        <f t="shared" ref="K34:K66" si="2">SUMIF(E$1:E$178,I34,F$1:F$178)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2910,18 +2906,18 @@
         <v>39</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2947,18 +2943,18 @@
         <v>40</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2984,18 +2980,18 @@
         <v>41</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="L37">
+        <f t="shared" si="2"/>
         <v>402</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3021,18 +3017,18 @@
         <v>43</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="L38">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3058,18 +3054,18 @@
         <v>44</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L39">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3095,18 +3091,18 @@
         <v>45</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L40">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>676</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3132,18 +3128,18 @@
         <v>46</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L41">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X41" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3169,18 +3165,18 @@
         <v>47</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="L42">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X42" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3206,18 +3202,18 @@
         <v>48</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="L43">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="X43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3239,8 +3235,22 @@
       <c r="G44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3262,8 +3272,23 @@
       <c r="G45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="X45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3285,8 +3310,22 @@
       <c r="G46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3308,8 +3347,22 @@
       <c r="G47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3331,8 +3384,22 @@
       <c r="G48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3354,8 +3421,22 @@
       <c r="G49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3377,8 +3458,22 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3400,8 +3495,22 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3423,8 +3532,22 @@
       <c r="G52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3446,8 +3569,22 @@
       <c r="G53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3469,8 +3606,22 @@
       <c r="G54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3492,8 +3643,22 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3515,8 +3680,22 @@
       <c r="G56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3538,8 +3717,22 @@
       <c r="G57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3561,8 +3754,22 @@
       <c r="G58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3584,8 +3791,22 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3607,8 +3828,22 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3630,8 +3865,22 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3653,8 +3902,22 @@
       <c r="G62">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3676,8 +3939,22 @@
       <c r="G63">
         <v>606</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3699,8 +3976,22 @@
       <c r="G64">
         <v>104</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="X64" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3722,8 +4013,22 @@
       <c r="G65">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I65" t="s">
+        <v>83</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3745,8 +4050,22 @@
       <c r="G66">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3768,8 +4087,22 @@
       <c r="G67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" ref="J67:J107" si="3">COUNTIF($E$1:$E$178,I67)</f>
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K107" si="4">SUMIF(E$1:E$178,I67,F$1:F$178)</f>
+        <v>22</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3791,8 +4124,22 @@
       <c r="G68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3814,8 +4161,22 @@
       <c r="G69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="X69" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3837,8 +4198,22 @@
       <c r="G70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I70" t="s">
+        <v>88</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X70" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3860,8 +4235,22 @@
       <c r="G71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3883,8 +4272,22 @@
       <c r="G72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I72" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3906,8 +4309,22 @@
       <c r="G73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I73" t="s">
+        <v>45</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>676</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3929,8 +4346,22 @@
       <c r="G74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I74" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3952,8 +4383,22 @@
       <c r="G75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I75" t="s">
+        <v>92</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3975,8 +4420,22 @@
       <c r="G76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I76" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3987,19 +4446,33 @@
         <v>3.6006944444444446E-2</v>
       </c>
       <c r="D77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X77" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4010,10 +4483,10 @@
         <v>0.50670138888888883</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F78" s="10">
         <v>1</v>
@@ -4021,8 +4494,23 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J78" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y78" s="10"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4033,10 +4521,10 @@
         <v>0.91541666666666666</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -4044,8 +4532,22 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I79" t="s">
+        <v>96</v>
+      </c>
+      <c r="J79" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4056,10 +4558,10 @@
         <v>0.82565972222222228</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80">
         <v>29</v>
@@ -4067,8 +4569,22 @@
       <c r="G80">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I80" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X80" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4079,10 +4595,10 @@
         <v>0.69195601851851851</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F81">
         <v>25</v>
@@ -4090,8 +4606,22 @@
       <c r="G81">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I81" t="s">
+        <v>98</v>
+      </c>
+      <c r="J81" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4102,10 +4632,10 @@
         <v>0.98993055555555554</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F82">
         <v>13</v>
@@ -4113,8 +4643,22 @@
       <c r="G82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I82" t="s">
+        <v>99</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="X82" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4125,10 +4669,10 @@
         <v>5.3240740740740748E-3</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4136,8 +4680,22 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I83" t="s">
+        <v>100</v>
+      </c>
+      <c r="J83" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4148,10 +4706,10 @@
         <v>0.96910879629629632</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4159,8 +4717,22 @@
       <c r="G84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I84" t="s">
+        <v>101</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X84" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4171,10 +4743,10 @@
         <v>0.49738425925925928</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4182,8 +4754,22 @@
       <c r="G85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I85" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="X85" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4194,10 +4780,10 @@
         <v>0.61690972222222229</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4205,8 +4791,22 @@
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I86" t="s">
+        <v>103</v>
+      </c>
+      <c r="J86" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X86" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4217,10 +4817,10 @@
         <v>0.17373842592592592</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4228,8 +4828,22 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I87" t="s">
+        <v>104</v>
+      </c>
+      <c r="J87" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X87" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4240,10 +4854,10 @@
         <v>0.83060185185185187</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4251,8 +4865,22 @@
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I88" t="s">
+        <v>105</v>
+      </c>
+      <c r="J88" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4263,10 +4891,10 @@
         <v>0.82906250000000004</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4274,8 +4902,22 @@
       <c r="G89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I89" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4286,10 +4928,10 @@
         <v>0.35806712962962961</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4297,8 +4939,22 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I90" t="s">
+        <v>107</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X90" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4309,10 +4965,10 @@
         <v>0.35783564814814817</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4320,8 +4976,22 @@
       <c r="G91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I91" t="s">
+        <v>108</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4332,10 +5002,10 @@
         <v>0.3573263888888889</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -4343,8 +5013,22 @@
       <c r="G92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I92" t="s">
+        <v>109</v>
+      </c>
+      <c r="J92" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X92" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4355,10 +5039,10 @@
         <v>0.1545138888888889</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4366,8 +5050,22 @@
       <c r="G93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J93" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X93" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4378,10 +5076,10 @@
         <v>0.13578703703703704</v>
       </c>
       <c r="D94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4389,8 +5087,22 @@
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I94" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4401,10 +5113,10 @@
         <v>0.13552083333333334</v>
       </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F95">
         <v>3</v>
@@ -4412,8 +5124,22 @@
       <c r="G95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I95" t="s">
+        <v>112</v>
+      </c>
+      <c r="J95" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="X95" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4424,10 +5150,10 @@
         <v>0.13505787037037037</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -4435,8 +5161,22 @@
       <c r="G96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I96" t="s">
+        <v>113</v>
+      </c>
+      <c r="J96" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X96" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4447,10 +5187,10 @@
         <v>0.96589120370370374</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -4458,8 +5198,22 @@
       <c r="G97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I97" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="X97" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4470,10 +5224,10 @@
         <v>0.22865740740740739</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4481,8 +5235,22 @@
       <c r="G98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I98" t="s">
+        <v>115</v>
+      </c>
+      <c r="J98" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4493,10 +5261,10 @@
         <v>3.1006944444444445E-2</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -4504,8 +5272,22 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I99" t="s">
+        <v>114</v>
+      </c>
+      <c r="J99" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="X99" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4516,10 +5298,10 @@
         <v>2.238425925925926E-2</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -4527,8 +5309,22 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I100" t="s">
+        <v>116</v>
+      </c>
+      <c r="J100" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4539,10 +5335,10 @@
         <v>0.38925925925925925</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4550,8 +5346,22 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I101" t="s">
+        <v>117</v>
+      </c>
+      <c r="J101" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4562,10 +5372,10 @@
         <v>0.38902777777777775</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4573,8 +5383,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I102" t="s">
+        <v>118</v>
+      </c>
+      <c r="J102" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4585,10 +5409,10 @@
         <v>0.18081018518518518</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -4596,8 +5420,22 @@
       <c r="G103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I103" t="s">
+        <v>119</v>
+      </c>
+      <c r="J103" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X103" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4608,10 +5446,10 @@
         <v>0.18030092592592592</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4619,8 +5457,22 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I104" t="s">
+        <v>120</v>
+      </c>
+      <c r="J104" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X104" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4631,10 +5483,10 @@
         <v>0.92930555555555561</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -4642,8 +5494,22 @@
       <c r="G105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I105" t="s">
+        <v>121</v>
+      </c>
+      <c r="J105" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X105" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4654,10 +5520,10 @@
         <v>0.92896990740740737</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -4665,8 +5531,22 @@
       <c r="G106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I106" t="s">
+        <v>122</v>
+      </c>
+      <c r="J106" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4677,10 +5557,10 @@
         <v>0.92056712962962972</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -4688,8 +5568,22 @@
       <c r="G107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I107" t="s">
+        <v>123</v>
+      </c>
+      <c r="J107" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4700,10 +5594,10 @@
         <v>0.91895833333333332</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -4711,8 +5605,11 @@
       <c r="G108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X108" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4723,10 +5620,10 @@
         <v>0.91210648148148143</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F109">
         <v>5</v>
@@ -4734,8 +5631,11 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X109" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4746,10 +5646,10 @@
         <v>0.9044212962962962</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -4757,8 +5657,11 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X110" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4769,10 +5672,10 @@
         <v>0.90209490740740739</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -4780,8 +5683,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X111" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4792,10 +5698,10 @@
         <v>0.89931712962962962</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -4803,8 +5709,11 @@
       <c r="G112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X112" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4815,10 +5724,10 @@
         <v>0.89589120370370379</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F113">
         <v>6</v>
@@ -4826,8 +5735,11 @@
       <c r="G113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X113" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4838,10 +5750,10 @@
         <v>0.89083333333333325</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -4849,8 +5761,11 @@
       <c r="G114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X114" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4861,10 +5776,10 @@
         <v>0.8898032407407408</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F115">
         <v>6</v>
@@ -4872,8 +5787,11 @@
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X115" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4884,10 +5802,10 @@
         <v>0.88559027777777777</v>
       </c>
       <c r="D116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F116">
         <v>5</v>
@@ -4895,8 +5813,11 @@
       <c r="G116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X116" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4907,10 +5828,10 @@
         <v>0.88207175925925929</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F117">
         <v>9</v>
@@ -4918,8 +5839,11 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X117" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4930,19 +5854,22 @@
         <v>0.3555787037037037</v>
       </c>
       <c r="D118" t="s">
+        <v>82</v>
+      </c>
+      <c r="E118" t="s">
         <v>83</v>
       </c>
-      <c r="E118" t="s">
-        <v>84</v>
-      </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X118" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4953,10 +5880,10 @@
         <v>0.89749999999999996</v>
       </c>
       <c r="D119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F119">
         <v>6</v>
@@ -4964,8 +5891,11 @@
       <c r="G119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4976,10 +5906,10 @@
         <v>0.70458333333333334</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F120">
         <v>6</v>
@@ -4987,8 +5917,11 @@
       <c r="G120">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X120" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4999,10 +5932,10 @@
         <v>0.69493055555555561</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -5010,8 +5943,11 @@
       <c r="G121">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5022,10 +5958,10 @@
         <v>0.87304398148148143</v>
       </c>
       <c r="D122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -5033,8 +5969,11 @@
       <c r="G122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5045,10 +5984,10 @@
         <v>0.86327546296296298</v>
       </c>
       <c r="D123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F123">
         <v>24</v>
@@ -5056,8 +5995,11 @@
       <c r="G123">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5068,10 +6010,10 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="D124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F124">
         <v>3</v>
@@ -5079,8 +6021,11 @@
       <c r="G124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5091,10 +6036,10 @@
         <v>4.3576388888888894E-2</v>
       </c>
       <c r="D125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -5102,8 +6047,11 @@
       <c r="G125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5114,10 +6062,10 @@
         <v>2.7268518518518515E-2</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F126">
         <v>6</v>
@@ -5125,8 +6073,11 @@
       <c r="G126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5137,10 +6088,10 @@
         <v>1.045138888888889E-2</v>
       </c>
       <c r="D127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F127">
         <v>8</v>
@@ -5148,8 +6099,11 @@
       <c r="G127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5160,10 +6114,10 @@
         <v>0.57865740740740745</v>
       </c>
       <c r="D128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -5171,8 +6125,11 @@
       <c r="G128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5183,10 +6140,10 @@
         <v>0.70869212962962969</v>
       </c>
       <c r="D129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5194,8 +6151,11 @@
       <c r="G129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X129" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5206,10 +6166,10 @@
         <v>0.67538194444444455</v>
       </c>
       <c r="D130" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E130" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F130">
         <v>13</v>
@@ -5217,8 +6177,11 @@
       <c r="G130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5229,10 +6192,10 @@
         <v>0.67271990740740739</v>
       </c>
       <c r="D131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F131">
         <v>35</v>
@@ -5240,8 +6203,11 @@
       <c r="G131">
         <v>64</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5252,10 +6218,10 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="D132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5263,8 +6229,11 @@
       <c r="G132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5275,7 +6244,7 @@
         <v>0.7232291666666667</v>
       </c>
       <c r="D133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E133" t="s">
         <v>45</v>
@@ -5286,8 +6255,11 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X133" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5298,7 +6270,7 @@
         <v>0.72298611111111111</v>
       </c>
       <c r="D134" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E134" t="s">
         <v>45</v>
@@ -5309,8 +6281,11 @@
       <c r="G134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5321,7 +6296,7 @@
         <v>0.72196759259259258</v>
       </c>
       <c r="D135" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E135" t="s">
         <v>45</v>
@@ -5332,8 +6307,11 @@
       <c r="G135">
         <v>45</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X135" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5344,10 +6322,10 @@
         <v>0.50266203703703705</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -5355,8 +6333,11 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5367,10 +6348,10 @@
         <v>0.84221064814814817</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -5378,8 +6359,11 @@
       <c r="G137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X137" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5390,10 +6374,10 @@
         <v>0.67546296296296304</v>
       </c>
       <c r="D138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -5401,8 +6385,11 @@
       <c r="G138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X138" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5413,10 +6400,10 @@
         <v>0.2202314814814815</v>
       </c>
       <c r="D139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F139">
         <v>3</v>
@@ -5424,8 +6411,11 @@
       <c r="G139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5436,10 +6426,10 @@
         <v>0.53143518518518518</v>
       </c>
       <c r="D140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F140">
         <v>2</v>
@@ -5447,8 +6437,11 @@
       <c r="G140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X140" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5459,10 +6452,10 @@
         <v>0.2094560185185185</v>
       </c>
       <c r="D141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -5470,8 +6463,11 @@
       <c r="G141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X141" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5482,10 +6478,10 @@
         <v>1.8935185185185183E-2</v>
       </c>
       <c r="D142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F142">
         <v>4</v>
@@ -5493,8 +6489,11 @@
       <c r="G142">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X142" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5505,10 +6504,10 @@
         <v>6.9282407407407418E-2</v>
       </c>
       <c r="D143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F143">
         <v>3</v>
@@ -5516,8 +6515,11 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X143" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5528,10 +6530,10 @@
         <v>0.76541666666666675</v>
       </c>
       <c r="D144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F144">
         <v>102</v>
@@ -5539,8 +6541,11 @@
       <c r="G144">
         <v>103</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X144" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5551,10 +6556,10 @@
         <v>0.4109606481481482</v>
       </c>
       <c r="D145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -5562,8 +6567,11 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5574,10 +6582,10 @@
         <v>4.5486111111111109E-3</v>
       </c>
       <c r="D146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5585,8 +6593,11 @@
       <c r="G146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5597,10 +6608,10 @@
         <v>0.80412037037037043</v>
       </c>
       <c r="D147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E147" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -5608,8 +6619,11 @@
       <c r="G147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X147" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5620,10 +6634,10 @@
         <v>0.80297453703703703</v>
       </c>
       <c r="D148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F148">
         <v>9</v>
@@ -5631,8 +6645,11 @@
       <c r="G148">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X148" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5643,10 +6660,10 @@
         <v>0.61769675925925926</v>
       </c>
       <c r="D149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -5654,8 +6671,11 @@
       <c r="G149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5666,10 +6686,10 @@
         <v>0.10849537037037038</v>
       </c>
       <c r="D150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -5677,8 +6697,11 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5689,10 +6712,10 @@
         <v>0.84317129629629628</v>
       </c>
       <c r="D151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F151">
         <v>9</v>
@@ -5700,8 +6723,11 @@
       <c r="G151">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X151" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5712,10 +6738,10 @@
         <v>0.46438657407407408</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -5723,8 +6749,11 @@
       <c r="G152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5735,10 +6764,10 @@
         <v>0.46251157407407412</v>
       </c>
       <c r="D153" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E153" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -5746,8 +6775,11 @@
       <c r="G153">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X153" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5758,10 +6790,10 @@
         <v>0.64372685185185186</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E154" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -5769,8 +6801,11 @@
       <c r="G154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X154" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5781,10 +6816,10 @@
         <v>0.16972222222222222</v>
       </c>
       <c r="D155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E155" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F155">
         <v>3</v>
@@ -5792,8 +6827,11 @@
       <c r="G155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X155" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5804,10 +6842,10 @@
         <v>0.49592592592592594</v>
       </c>
       <c r="D156" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F156">
         <v>2</v>
@@ -5815,8 +6853,11 @@
       <c r="G156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X156" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5827,10 +6868,10 @@
         <v>0.49384259259259261</v>
       </c>
       <c r="D157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -5838,8 +6879,11 @@
       <c r="G157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5850,10 +6894,10 @@
         <v>0.80548611111111112</v>
       </c>
       <c r="D158" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F158">
         <v>3</v>
@@ -5861,8 +6905,11 @@
       <c r="G158">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X158" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5873,10 +6920,10 @@
         <v>0.63069444444444445</v>
       </c>
       <c r="D159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F159">
         <v>15</v>
@@ -5884,8 +6931,11 @@
       <c r="G159">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X159" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5896,10 +6946,10 @@
         <v>0.54091435185185188</v>
       </c>
       <c r="D160" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E160" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F160">
         <v>9</v>
@@ -5907,8 +6957,11 @@
       <c r="G160">
         <v>10</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X160" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5919,10 +6972,10 @@
         <v>0.48998842592592595</v>
       </c>
       <c r="D161" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E161" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F161">
         <v>10</v>
@@ -5930,8 +6983,11 @@
       <c r="G161">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5942,10 +6998,10 @@
         <v>0.89432870370370365</v>
       </c>
       <c r="D162" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -5953,8 +7009,11 @@
       <c r="G162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5965,10 +7024,10 @@
         <v>0.80925925925925923</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E163" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F163">
         <v>7</v>
@@ -5976,8 +7035,11 @@
       <c r="G163">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5988,10 +7050,10 @@
         <v>0.67996527777777782</v>
       </c>
       <c r="D164" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E164" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -5999,8 +7061,11 @@
       <c r="G164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X164" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6011,10 +7076,10 @@
         <v>0.67931712962962953</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E165" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -6022,8 +7087,11 @@
       <c r="G165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X165" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6034,10 +7102,10 @@
         <v>0.67814814814814817</v>
       </c>
       <c r="D166" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E166" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F166">
         <v>11</v>
@@ -6045,8 +7113,11 @@
       <c r="G166">
         <v>11</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X166" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6057,10 +7128,10 @@
         <v>0.67550925925925931</v>
       </c>
       <c r="D167" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E167" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F167">
         <v>6</v>
@@ -6068,8 +7139,11 @@
       <c r="G167">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X167" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6080,10 +7154,10 @@
         <v>0.66834490740740737</v>
       </c>
       <c r="D168" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E168" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F168">
         <v>6</v>
@@ -6091,8 +7165,11 @@
       <c r="G168">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X168" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6103,10 +7180,10 @@
         <v>0.67437499999999995</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F169">
         <v>5</v>
@@ -6114,8 +7191,11 @@
       <c r="G169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X169" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6126,10 +7206,10 @@
         <v>0.91582175925925924</v>
       </c>
       <c r="D170" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -6137,8 +7217,11 @@
       <c r="G170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X170" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6149,10 +7232,10 @@
         <v>0.89576388888888892</v>
       </c>
       <c r="D171" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E171" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -6160,8 +7243,11 @@
       <c r="G171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X171" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6172,10 +7258,10 @@
         <v>0.78657407407407398</v>
       </c>
       <c r="D172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -6183,8 +7269,11 @@
       <c r="G172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X172" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6195,10 +7284,10 @@
         <v>0.50733796296296296</v>
       </c>
       <c r="D173" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E173" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -6206,8 +7295,11 @@
       <c r="G173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X173" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6218,10 +7310,10 @@
         <v>0.50304398148148144</v>
       </c>
       <c r="D174" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E174" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -6229,8 +7321,11 @@
       <c r="G174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X174" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6241,10 +7336,10 @@
         <v>0.63732638888888882</v>
       </c>
       <c r="D175" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -6252,8 +7347,11 @@
       <c r="G175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X175" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6264,10 +7362,10 @@
         <v>0.6955324074074074</v>
       </c>
       <c r="D176" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E176" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F176">
         <v>5</v>
@@ -6275,8 +7373,11 @@
       <c r="G176">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X176" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6287,10 +7388,10 @@
         <v>0.99261574074074066</v>
       </c>
       <c r="D177" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E177" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -6298,8 +7399,11 @@
       <c r="G177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="X177" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6310,10 +7414,10 @@
         <v>0.93098379629629635</v>
       </c>
       <c r="D178" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -6321,10 +7425,14 @@
       <c r="G178">
         <v>1</v>
       </c>
+      <c r="X178" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="R19:R29">
-    <sortCondition ref="R19"/>
+  <autoFilter ref="X1:X178"/>
+  <sortState ref="Q19:Q29">
+    <sortCondition ref="Q19"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
